--- a/NicheNet_output/performances_one_24.xlsx
+++ b/NicheNet_output/performances_one_24.xlsx
@@ -462,7 +462,7 @@
         <v>0.04570028453611385</v>
       </c>
       <c r="J2">
-        <v>0.03180801065003972</v>
+        <v>0.03121748715316869</v>
       </c>
       <c r="K2">
         <v>184.046274168872</v>
@@ -510,7 +510,7 @@
         <v>0.04876672756120534</v>
       </c>
       <c r="J3">
-        <v>0.03195435648800757</v>
+        <v>0.0348347313792297</v>
       </c>
       <c r="K3">
         <v>113.7538847443124</v>
@@ -558,7 +558,7 @@
         <v>0.03771849335670816</v>
       </c>
       <c r="J4">
-        <v>0.0219394725674938</v>
+        <v>0.02318265279976342</v>
       </c>
       <c r="K4">
         <v>152.1306923221178</v>
